--- a/generate-excel/excel/test.xlsx
+++ b/generate-excel/excel/test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADFE3F00-7AC8-45C0-AD68-902737436061}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B42FA51-19D8-4462-9AEF-46E25ED353D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -170,19 +170,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>t.testProject</t>
+    <t>{{!fe:orders2 t.recordCodeList</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>t.remark}}</t>
+    <t>t.codeList</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{{!fe:orders2 t.recordCode</t>
+    <t>t.testProjectList</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>t.code</t>
+    <t>t.remarkList}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -981,7 +981,7 @@
   <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1143,16 +1143,16 @@
       <c r="O4" s="31"/>
       <c r="P4" s="9"/>
       <c r="Q4" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="R4" t="s">
+        <v>45</v>
+      </c>
+      <c r="S4" t="s">
         <v>46</v>
       </c>
-      <c r="R4" t="s">
+      <c r="T4" t="s">
         <v>47</v>
-      </c>
-      <c r="S4" t="s">
-        <v>44</v>
-      </c>
-      <c r="T4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
